--- a/biology/Botanique/Phycoérythrine/Phycoérythrine.xlsx
+++ b/biology/Botanique/Phycoérythrine/Phycoérythrine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Phyco%C3%A9rythrine</t>
+          <t>Phycoérythrine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La phycoérythrine est une phycobiliprotéine. 
-C'est un pigment rouge que l'on trouve chez certaines cyanobactéries, la plupart des algues rouges et certains cryptophytes. Il est utilisé comme marqueur fluorescent, lors de cytométrie en flux ou de microscopie confocale par exemple. Il est aussi utilisé dans d'autres application demandant une grande sensitivité, mais pas une photostabilité[1]. 
-Les phycobiliprotéines, donnant la couleur rouge à la phycoérythrine, pourraient avoir plusieurs applications. par exemple, il a été noté qu'elle présentent des effets bénéfiques dans le traitement de certaines maladies comme l'Alzheimer et le cancer[2].
+C'est un pigment rouge que l'on trouve chez certaines cyanobactéries, la plupart des algues rouges et certains cryptophytes. Il est utilisé comme marqueur fluorescent, lors de cytométrie en flux ou de microscopie confocale par exemple. Il est aussi utilisé dans d'autres application demandant une grande sensitivité, mais pas une photostabilité. 
+Les phycobiliprotéines, donnant la couleur rouge à la phycoérythrine, pourraient avoir plusieurs applications. par exemple, il a été noté qu'elle présentent des effets bénéfiques dans le traitement de certaines maladies comme l'Alzheimer et le cancer.
 C'est aussi un pigment assimilateur qui absorbe la lumière verte et bleue (principalement entre 450 et 550 nm)
-Les phycoérythrines sont composés de monomères (αβ) généralement organisés en trimères (αβ)3 ou en hexamères (αβ)6. Ces complexes contiennent un troisième type de sous unité : la chaine γ[3].
+Les phycoérythrines sont composés de monomères (αβ) généralement organisés en trimères (αβ)3 ou en hexamères (αβ)6. Ces complexes contiennent un troisième type de sous unité : la chaine γ.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Phyco%C3%A9rythrine</t>
+          <t>Phycoérythrine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La phycoérythrine est un hétéro-pigment constitué d'une apoprotéine et d'un chromophore. L'apoprotéine comporte deux sous-unités : l'α-phycoérythrine et la ß-phycoérythrine. Les chromophores sont la phycoérythrobiline (PEB) et la phycourobiline (PUB), liés par covalence au peptide. 
 On distingue quatre classes de phycoérythrine selon les chromophores liés et selon les propriétés d'absorption et d'émission de fluorescence : 
